--- a/files/Accounts.xlsx
+++ b/files/Accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Documents\Universidad\ITESO\9-SEMESTRE\Microestructuras y Sistemas de Trading\MyST_LAB3_1\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\TRADING\MyST_LAB3_1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B760D94A-2E2E-486D-812C-9D7B27E1EC6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D31BCD-A56E-4B14-8F70-C661F5426165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -53,12 +53,18 @@
   </si>
   <si>
     <t>Account_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn </t>
+  </si>
+  <si>
+    <t>dnn0hdfk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,48 +546,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -892,19 +898,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -926,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -937,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -948,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -957,9 +963,21 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>41995816</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/Accounts.xlsx
+++ b/files/Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\TRADING\MyST_LAB3_1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D31BCD-A56E-4B14-8F70-C661F5426165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815E2A5-7450-4DFD-9D7F-15BF414BC295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>dnn0hdfk</t>
+  </si>
+  <si>
+    <t>Otro</t>
   </si>
 </sst>
 </file>
@@ -899,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,6 +979,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
